--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20202.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20202.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="1er Parcial" sheetId="1" r:id="rId1"/>
-    <sheet name="2o Parcial" sheetId="2" r:id="rId2"/>
-    <sheet name="3er Parcial" sheetId="3" r:id="rId3"/>
+    <sheet name="3er Parcial" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Docente</t>
   </si>
@@ -516,530 +514,6 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>7.3</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>91.3</v>
-      </c>
-      <c r="H4">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>75</v>
-      </c>
-      <c r="H5">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>8.1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>86.95999999999999</v>
-      </c>
-      <c r="H6">
-        <v>13.04</v>
-      </c>
-      <c r="I6">
-        <v>6.4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>83.33</v>
-      </c>
-      <c r="H7">
-        <v>16.67</v>
-      </c>
-      <c r="I7">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>7.8</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
-        <v>26</v>
-      </c>
-      <c r="E3">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>7.4</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>91.3</v>
-      </c>
-      <c r="H4">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I4">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
-      <c r="E5">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>77.78</v>
-      </c>
-      <c r="H5">
-        <v>22.22</v>
-      </c>
-      <c r="I5">
-        <v>8.1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>86.95999999999999</v>
-      </c>
-      <c r="H6">
-        <v>13.04</v>
-      </c>
-      <c r="I6">
-        <v>6.7</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>31</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>86.11</v>
-      </c>
-      <c r="H7">
-        <v>13.89</v>
-      </c>
-      <c r="I7">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
         <v>7.6</v>
       </c>
       <c r="J2">
